--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ncam1-Robo3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ncam1-Robo3.xlsx
@@ -528,34 +528,34 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.9404873333333333</v>
+        <v>0.05354133333333333</v>
       </c>
       <c r="H2">
-        <v>2.821462</v>
+        <v>0.160624</v>
       </c>
       <c r="I2">
-        <v>0.02000383747045655</v>
+        <v>0.00209946492164722</v>
       </c>
       <c r="J2">
-        <v>0.02000383747045654</v>
+        <v>0.00209946492164722</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.395507</v>
+        <v>2.341267</v>
       </c>
       <c r="N2">
-        <v>7.186521000000001</v>
+        <v>7.023801</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>2.252943990411334</v>
+        <v>0.1253545568693333</v>
       </c>
       <c r="R2">
-        <v>20.276495913702</v>
+        <v>1.128191011824</v>
       </c>
       <c r="S2">
-        <v>0.02000383747045655</v>
+        <v>0.00209946492164722</v>
       </c>
       <c r="T2">
-        <v>0.02000383747045654</v>
+        <v>0.00209946492164722</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,22 +602,22 @@
         <v>4.177801000000001</v>
       </c>
       <c r="I3">
-        <v>0.0296201232509638</v>
+        <v>0.05460670042535784</v>
       </c>
       <c r="J3">
-        <v>0.0296201232509638</v>
+        <v>0.05460670042535784</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>2.395507</v>
+        <v>2.341267</v>
       </c>
       <c r="N3">
-        <v>7.186521000000001</v>
+        <v>7.023801</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>3.335983846702334</v>
+        <v>3.260449204622333</v>
       </c>
       <c r="R3">
-        <v>30.02385462032101</v>
+        <v>29.344042841601</v>
       </c>
       <c r="S3">
-        <v>0.0296201232509638</v>
+        <v>0.05460670042535784</v>
       </c>
       <c r="T3">
-        <v>0.0296201232509638</v>
+        <v>0.05460670042535784</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,28 +658,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.682258</v>
+        <v>24.05622933333333</v>
       </c>
       <c r="H4">
-        <v>134.046774</v>
+        <v>72.168688</v>
       </c>
       <c r="I4">
-        <v>0.9503760392785797</v>
+        <v>0.943293834652995</v>
       </c>
       <c r="J4">
-        <v>0.9503760392785796</v>
+        <v>0.943293834652995</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>2.395507</v>
+        <v>2.341267</v>
       </c>
       <c r="N4">
-        <v>7.186521000000001</v>
+        <v>7.023801</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>107.036661814806</v>
+        <v>56.32205588256533</v>
       </c>
       <c r="R4">
-        <v>963.3299563332541</v>
+        <v>506.898502943088</v>
       </c>
       <c r="S4">
-        <v>0.9503760392785797</v>
+        <v>0.943293834652995</v>
       </c>
       <c r="T4">
-        <v>0.9503760392785796</v>
+        <v>0.943293834652995</v>
       </c>
     </row>
   </sheetData>
